--- a/data/trans_bre/P24_8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,81</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>80,43%</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>254,94%</t>
+          <t>551,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>182,55%</t>
+          <t>205,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>223,16%</t>
+          <t>466,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>147,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 12,78</t>
+          <t>2,79; 25,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 17,72</t>
+          <t>-1,91; 22,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 15,45</t>
+          <t>2,04; 23,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 15,45</t>
+          <t>-2,39; 25,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 445,65</t>
+          <t>-15,25; 20,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,88; 1433,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 1270,38</t>
+          <t>-56,72; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1298,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-34,68; 976,58</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-60,94; 297,24</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>10,68</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>188,06%</t>
+          <t>65,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>168,09%</t>
+          <t>256,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>216,04%</t>
+          <t>223,9%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>246,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>274,91%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 8,69</t>
+          <t>-13,44; 13,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 12,63</t>
+          <t>6,1; 18,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,93</t>
+          <t>3,62; 14,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,27</t>
+          <t>5,31; 18,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 134,27</t>
+          <t>5,03; 17,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,42; 497,31</t>
+          <t>-55,87; 362,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,81; 434,79</t>
+          <t>67,99; 792,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,07; 536,25</t>
+          <t>26,85; 670,72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>61,45; 759,94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52,45; 914,27</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>137,31%</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>180,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>195,93%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>164,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>311,64%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 11,6</t>
+          <t>1,01; 12,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,76</t>
+          <t>-4,51; 6,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 11,98</t>
+          <t>0,32; 11,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 8,21</t>
+          <t>-5,89; 9,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 479,91</t>
+          <t>2,22; 13,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 227,65</t>
+          <t>-0,69; 1048,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,77; 676,13</t>
+          <t>-61,23; 274,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 227,59</t>
+          <t>-22,91; 997,08</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-59,1; 775,75</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 1679,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>140,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>179,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>149,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 136,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,24; 299,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,4; 364,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,27; 313,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,21</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,17</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,01</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,45</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,24</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>112,67%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>150,89%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>221,44%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>164,7%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>153,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 12,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 10,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 12,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 12,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 13,09</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 362,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49,31; 372,72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>70,35; 588,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42,79; 389,52</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>46,01; 376,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,225 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,07</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>551,59%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>205,34%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>466,11%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>147,23%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.0502827211195</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.306351791296324</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.09159206750512</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.1583849888256</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.098823030559752</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>5.515920359085161</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.095520287545701</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>4.588700349179243</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.362610996503081</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2229244069250812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 25,85</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 22,68</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 23,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 25,62</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-15,25; 20,93</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-56,72; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-34,68; 976,58</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-60,94; 297,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.789872409867134</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.533558119118252</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.414765900698978</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.496947820671171</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-12.99108443932182</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.5695241006760985</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-0.4007052626321126</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.5962557833766577</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.84820218723543</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.04799465409733</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.28753884248626</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.12112867035726</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>20.45675733105325</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="n">
+        <v>8.827354201245067</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.358191360614584</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,3</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,69</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,68</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>65,62%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>256,07%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>223,9%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>246,08%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>274,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,44; 13,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 18,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 14,91</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 18,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 17,24</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-55,87; 362,21</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>67,99; 792,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>26,85; 670,72</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>61,45; 759,94</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>52,45; 914,27</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.30249717587878</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.31071784269172</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.947497216797148</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>11.45769664337077</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>11.06169305194615</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6562241685380721</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.84339387780971</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.270171564297962</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.278514152056831</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2.911651913094344</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,85</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>180,33%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>28,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>164,23%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>80,18%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>311,64%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.43647702605952</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>6.413504750221809</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.729304112035278</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.967984360131599</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.3985164557368</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5586928522560043</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.7920663856241807</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3769400687840578</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.5641356956060324</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.5552163946945253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 12,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,51; 6,76</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 11,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 9,19</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 13,28</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1048,34</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-61,23; 274,15</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-22,91; 997,08</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-59,1; 775,75</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 1679,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.62821997690303</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.9356186155023</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.01720614239725</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.76767358775515</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>17.78448242513348</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.622054134287001</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>8.487613121034094</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>7.088014644610402</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>7.397560311130685</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>10.23423882904621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +869,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.762527301844059</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3034519770810734</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.827891193785362</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.121683348257849</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.056985435763124</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.803301112642266</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.04655960902514016</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.102327580945585</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.573363182671328</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>2.681081448641687</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.012641483360083</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.05617600236959</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.060295868216185</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.378541334085631</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.537874184280487</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.006947542790704693</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8434128667368244</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4918404780679276</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6299721299775041</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1161503353889518</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.64086375481671</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.039571704392844</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.70572947032976</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.024571599835303</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>12.49256358986056</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>10.48344967137596</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.679756912161222</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>7.508021352037765</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>8.468009625119247</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>15.06232142324155</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,01</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,45</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,24</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>112,67%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>150,89%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>221,44%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>164,7%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>153,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 12,05</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 10,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,19; 12,05</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 12,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 13,09</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; 362,73</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>49,31; 372,72</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>70,35; 588,17</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>42,79; 389,52</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>46,01; 376,15</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.207889086897318</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.818263751283113</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.731767852556662</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.254155493222145</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>8.359958335384494</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.126657355137912</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.314403991348448</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.966922008145382</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.470861067375138</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.648100468504344</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4553268679285102</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.225128818678722</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.567529549569111</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.105937054625671</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.884339072988555</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.115641706000216</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.2177895100549297</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.4699655617211248</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3201335089569294</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5010187874537563</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.05136842356954</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.83599728545824</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.15334787041556</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.37019958513559</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.8818055166226</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.627278752065814</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.273403350060571</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>5.35078171309589</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.505472531655912</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.835726097154079</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
